--- a/medicine/Enfance/Pinocchio/Pinocchio.xlsx
+++ b/medicine/Enfance/Pinocchio/Pinocchio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pinocchio est un personnage de fiction italien, héros du roman pour enfants Les Aventures de Pinocchio (en italien : Le avventure di Pinocchio), écrit en 1881 par le journaliste et écrivain Carlo Collodi.
@@ -512,7 +524,9 @@
           <t>Histoire de Pinocchio</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Il était une fois… — Un Roi !  s'écrieront aussitôt mes petits lecteurs. Non, les enfants, vous vous trompez. Il était une fois un morceau de bois. »
@@ -546,7 +560,9 @@
           <t>Origines du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Pinocchio » signifie en toscan : « pignon » (« pignolat » en provençal, « pinolo » en italien). C'est la graine comestible du pin parasol (ou « pin pignon » — Pinus pinea) dont l'amande protégée par une fine coquille, se trouve à l'intérieur du cône ou  pomme de pin (ou encore la pigne en occitan, pigna en italien). Une adaptation allemande de Pinocchio du début du XXe siècle s'appelle ainsi Zäpfelkerns Abenteuer (Les Aventures de Pignon, Zäpfelkern traduit littéralement donne noyau de pomme de pin). Ce mot toscan du XIXe siècle est tombé en désuétude et n'est plus utilisé.
 Le Toscan Fernando Tempesti, chercheur en littérature et un des meilleurs spécialistes de Pinocchio, précise que dans la langue de Geppetto, le toscan du XIXe siècle, « pinocchio » signifie « petit pignon » qui voudrait dire également dans la langue secrète de Collodi : « petit crevard ». Cette expression renvoie à l'Arlequin de la commedia dell'arte florentine qui se nomme Stenterello, tout aussi famélique que Pinocchio.
@@ -581,10 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le bois dont est fait Pinocchio
-Geppetto est un menuisier, c’est-à-dire un artisan qui travaille de ses mains le bois, une matière naturelle, noble et vivante[1]. Mais de quel bois est fait Pinocchio ? Le Geppetto de Comencini, Nino Manfredi, projetait de faire la tête du pantin en bois de noyer, et le corps et les membres dans un bois de moindre valeur, du « legno meno pregiato », mais bien sûr en bois bien sec, « legno stagionato », car le bois vert se travaille mal. Carlo Collodi, dont le Geppetto est dans un grand dénuement, se contente de bois qui n’est pas évidemment du « legno di lusso », traduit maladroitement par la Comtesse de Gencé et tous les traducteurs qui s’en sont inspirés, par « bois de luxe », alors que d’autres traducteurs y voient, en exagérant un peu plus dans l’emphase, du « bois précieux » ou du « bois fin » et d’autres tout simplement du « beau bois », il s’agissait en effet « d’un simple morceau pris dans un tas de bois à brûler » et il va de soi que l’on ne brûle pas du « bois noble ». Certains illustrateurs de Pinocchio, cela se voit à l’écorce de la bûche, ont choisi le pin ou le sapin qui ne sont pas des « bois exotiques » mais bien des « bois ordinaires » en Toscane. Toutefois, le sapin se sculpte mal, se fend facilement et est un bois tendre, de nos jours on fabrique des Pinocchio, comme jouet ou pour la décoration, en aulne, en merisier, en hêtre, en bouleau, en charme, etc.
-Les outils de Geppetto
-Geppetto travaille dans sa « bottega », traduite par « boutique » ou « échoppe » et aussi peut-être plus justement par « atelier ». Geppetto travaille sur un « banco » : un « établi », qui est un des principaux instruments de travail du menuisier. Le mot italien « banco » peut signifier également un « banc » (pour s’asseoir). La Comtesse de Gencé, une des premières traductrices de Pinocchio dont le travail a servi de base aux traductions en français jusqu'à nos jours mais qui devait avoir bien peu le sens du travail manuel, fait la mauvaise traduction en traduisant « banco » par « banc » alors qu’il s’agit de toute évidence d'un « établi », une erreur à faire bondir tous les hommes de l'art. Il utilise les outils de menuisier : la hache bien aiguisée pour dégrossir le bois (un outil pourtant peu utilisé par les menuisiers dont le travail réclame précision et minutie), la scie, le rabot qui donne des chatouillis à Pinocchio encore sous forme de bûche, la râpe à bois dans le film de Comencini. Et Pinocchio dans un accès de fureur écrase le pauvre Grillon, parlant d’un coup de martello di legno, que beaucoup de traducteurs rendent mot à mot par « marteau de bois », alors qu’en français on parlerait naturellement de « maillet », qui est justement un marteau en bois utilisé pour frapper sur les pièces que le menuisier ou l'ébéniste assemble, par exemple, sans les marquer ni les abîmer comme le ferait un marteau de métal.
+          <t>Le bois dont est fait Pinocchio</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geppetto est un menuisier, c’est-à-dire un artisan qui travaille de ses mains le bois, une matière naturelle, noble et vivante. Mais de quel bois est fait Pinocchio ? Le Geppetto de Comencini, Nino Manfredi, projetait de faire la tête du pantin en bois de noyer, et le corps et les membres dans un bois de moindre valeur, du « legno meno pregiato », mais bien sûr en bois bien sec, « legno stagionato », car le bois vert se travaille mal. Carlo Collodi, dont le Geppetto est dans un grand dénuement, se contente de bois qui n’est pas évidemment du « legno di lusso », traduit maladroitement par la Comtesse de Gencé et tous les traducteurs qui s’en sont inspirés, par « bois de luxe », alors que d’autres traducteurs y voient, en exagérant un peu plus dans l’emphase, du « bois précieux » ou du « bois fin » et d’autres tout simplement du « beau bois », il s’agissait en effet « d’un simple morceau pris dans un tas de bois à brûler » et il va de soi que l’on ne brûle pas du « bois noble ». Certains illustrateurs de Pinocchio, cela se voit à l’écorce de la bûche, ont choisi le pin ou le sapin qui ne sont pas des « bois exotiques » mais bien des « bois ordinaires » en Toscane. Toutefois, le sapin se sculpte mal, se fend facilement et est un bois tendre, de nos jours on fabrique des Pinocchio, comme jouet ou pour la décoration, en aulne, en merisier, en hêtre, en bouleau, en charme, etc.
 </t>
         </is>
       </c>
@@ -610,12 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hommage</t>
+          <t>Naissance de Pinocchio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'astéroïde (12927) Pinocchio, découvert en 1999, est nommé en son honneur[2].
+          <t>Les outils de Geppetto</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geppetto travaille dans sa « bottega », traduite par « boutique » ou « échoppe » et aussi peut-être plus justement par « atelier ». Geppetto travaille sur un « banco » : un « établi », qui est un des principaux instruments de travail du menuisier. Le mot italien « banco » peut signifier également un « banc » (pour s’asseoir). La Comtesse de Gencé, une des premières traductrices de Pinocchio dont le travail a servi de base aux traductions en français jusqu'à nos jours mais qui devait avoir bien peu le sens du travail manuel, fait la mauvaise traduction en traduisant « banco » par « banc » alors qu’il s’agit de toute évidence d'un « établi », une erreur à faire bondir tous les hommes de l'art. Il utilise les outils de menuisier : la hache bien aiguisée pour dégrossir le bois (un outil pourtant peu utilisé par les menuisiers dont le travail réclame précision et minutie), la scie, le rabot qui donne des chatouillis à Pinocchio encore sous forme de bûche, la râpe à bois dans le film de Comencini. Et Pinocchio dans un accès de fureur écrase le pauvre Grillon, parlant d’un coup de martello di legno, que beaucoup de traducteurs rendent mot à mot par « marteau de bois », alors qu’en français on parlerait naturellement de « maillet », qui est justement un marteau en bois utilisé pour frapper sur les pièces que le menuisier ou l'ébéniste assemble, par exemple, sans les marquer ni les abîmer comme le ferait un marteau de métal.
 </t>
         </is>
       </c>
@@ -641,10 +666,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (12927) Pinocchio, découvert en 1999, est nommé en son honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pinocchio</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pinocchio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>À l'écran</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce conte populaire a connu beaucoup d'adaptations cinématographiques.
 </t>
